--- a/lesson_4/tw_stock_portfolio.xlsx
+++ b/lesson_4/tw_stock_portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyue\OneDrive\桌面\30hr_pyxl\python_excel_lesson4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Documents\GitHub\2020-Python-Excel-NTU\lesson_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="114_{0FB4552B-5F23-4DF6-BDE5-738981861BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9103C2F7-CF39-4D10-8965-D5E053D1ACE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731E5623-AB42-4BAF-92C7-3346C9BAF0AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="2290" windowWidth="16920" windowHeight="10550" activeTab="3" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
+    <workbookView xWindow="5580" yWindow="2290" windowWidth="16920" windowHeight="10550" activeTab="3" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="9" r:id="rId1"/>
@@ -26,12 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1257,8 +1251,24 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B28" s="2">
+        <v>28.95</v>
+      </c>
+      <c r="C28" s="4">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4">
+        <v>28.55</v>
+      </c>
+      <c r="E28" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -2523,8 +2533,24 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B28" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="E28" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>83.6</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -3164,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689E08F-5937-485C-A36C-110B1AC7FF80}">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3745,22 +3771,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
-        <v>43778</v>
+        <v>43868</v>
       </c>
       <c r="B27" s="7">
-        <v>27.8</v>
+        <v>330</v>
       </c>
       <c r="C27" s="4">
-        <v>27.8</v>
+        <v>330.5</v>
       </c>
       <c r="D27" s="4">
-        <v>27.6</v>
+        <v>328</v>
       </c>
       <c r="E27" s="4">
-        <v>27.6</v>
+        <v>329</v>
       </c>
       <c r="F27" s="4">
-        <v>27.6</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -3810,6 +3836,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="6"/>
@@ -3829,10 +3856,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
-      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="6"/>
@@ -3900,7 +3927,6 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
-      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
@@ -4089,7 +4115,8 @@
       <c r="A128" s="6"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" s="6"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="3"/>
@@ -4342,10 +4369,6 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
       <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193" s="3"/>
-      <c r="B193" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
